--- a/biology/Botanique/Pelecyphora/Pelecyphora.xlsx
+++ b/biology/Botanique/Pelecyphora/Pelecyphora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pelecyphora est un genre de plantes à fleurs de la famille des Cactaceae (les cactus), qui regroupe des « plantes grasses » originaires du Mexique et dont l'aspect général évoque une pomme de pin fermée.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			P. asseliformis
@@ -544,12 +558,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (3 juillet 2017)[2], Catalogue of Life                                   (3 juillet 2017)[3], GRIN            (3 juillet 2017)[4], ITIS      (3 juillet 2017)[5], The Plant List            (3 juillet 2017)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (3 juillet 2017), Catalogue of Life                                   (3 juillet 2017), GRIN            (3 juillet 2017), ITIS      (3 juillet 2017), The Plant List            (3 juillet 2017) :
 Pelecyphora aselliformis Ehrenb.
 Pelecyphora strobiliformis (Werderm.) Frič &amp; Schelle ex Kreuz.
-Selon Tropicos                                           (3 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Pelecyphora aselliformis Ehrenb.
 Pelecyphora pectinata K. Schum.
 Pelecyphora pseudopectinata Backeb.
